--- a/capiq_data/in_process_data/IQ25915843.xlsx
+++ b/capiq_data/in_process_data/IQ25915843.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E66421-CFD4-4FB8-B4AC-B97244A125DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4193C-DBB8-4F0D-813B-55B86526120E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d5fcca7c-9b39-4e03-8c72-3fec28c4c9ef"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e7463e24-0eb6-4e3b-a367-c65b0e8f166b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$69</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$69</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$69</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$69</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$69</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$69</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$69</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$69</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$69</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$69</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$69</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$69</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$69</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$69</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$69</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$69</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$69</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$69</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$69</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$69</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$69</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$69</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$69</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$69</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$69</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$69</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +814,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>12.718999999999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>413.262</v>
       </c>
       <c r="E2">
-        <v>275.846</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>315.75700000000001</v>
       </c>
       <c r="G2">
-        <v>1707.5550000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6656.9219999999996</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>875.726</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1249.221</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +853,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1895.347</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3920.2190000000001</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1249.221</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>158.601</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="S2">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2736.703</v>
+        <v>7554.3010000000004</v>
       </c>
       <c r="U2">
-        <v>621.19899999999996</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>440.39299999999997</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-959.90499999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>690.83399999999995</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>12.718999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>52.039000000000001</v>
+        <v>48.542000000000002</v>
       </c>
       <c r="D3">
-        <v>727.83500000000004</v>
+        <v>486.959</v>
       </c>
       <c r="E3">
-        <v>434.04500000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>552.22500000000002</v>
+        <v>73.522000000000006</v>
       </c>
       <c r="G3">
-        <v>2427.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7457.5879999999997</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1005.499</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1645.0640000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +936,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2652.88</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4688.4889999999996</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1645.0640000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>250.054</v>
+        <v>-9.3970000000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2769.0990000000002</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>953.16899999999998</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>732.85299999999995</v>
+        <v>216.739</v>
       </c>
       <c r="W3">
-        <v>-19.352</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-67.483000000000004</v>
+        <v>12.914999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-379.27300000000002</v>
+        <v>-690.83399999999995</v>
       </c>
       <c r="AA3">
-        <v>52.039000000000001</v>
+        <v>48.542000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>140.393</v>
+        <v>58.091999999999999</v>
       </c>
       <c r="D4">
-        <v>913.59100000000001</v>
+        <v>503.79300000000001</v>
       </c>
       <c r="E4">
-        <v>469.488</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>717.78099999999995</v>
+        <v>399.07100000000003</v>
       </c>
       <c r="G4">
-        <v>2954</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8045.277</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1139.644</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1645.2370000000001</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1019,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2998.1190000000001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5031.4290000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1645.2370000000001</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>426.03199999999998</v>
+        <v>-175.61600000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3013.848</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1409.008</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>457.24299999999999</v>
+        <v>57.408000000000001</v>
       </c>
       <c r="W4">
-        <v>-19.231999999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>62.606999999999999</v>
+        <v>1347.77</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-41.305999999999997</v>
+        <v>661.05100000000004</v>
       </c>
       <c r="AA4">
-        <v>140.393</v>
+        <v>58.091999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>209.53399999999999</v>
+        <v>44.12</v>
       </c>
       <c r="D5">
-        <v>1020.45</v>
+        <v>438.99900000000002</v>
       </c>
       <c r="E5">
-        <v>431.06400000000002</v>
+        <v>143.905</v>
       </c>
       <c r="F5">
-        <v>813.99900000000002</v>
+        <v>342.63299999999998</v>
       </c>
       <c r="G5">
-        <v>2598.1729999999998</v>
+        <v>2245.857</v>
       </c>
       <c r="H5">
-        <v>7676.683</v>
+        <v>9537.1869999999999</v>
       </c>
       <c r="I5">
-        <v>1106.8689999999999</v>
+        <v>528.40499999999997</v>
       </c>
       <c r="J5">
-        <v>1645.414</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1102,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2616.2689999999998</v>
+        <v>982.17899999999997</v>
       </c>
       <c r="O5">
-        <v>4638.6629999999996</v>
+        <v>1366.123</v>
       </c>
       <c r="P5">
-        <v>1645.414</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-31.696000000000002</v>
+        <v>-9.5890000000000004</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="T5">
-        <v>3038.02</v>
+        <v>8171.0640000000003</v>
       </c>
       <c r="U5">
-        <v>1453.508</v>
+        <v>141.66800000000001</v>
       </c>
       <c r="V5">
-        <v>-56.985999999999997</v>
+        <v>88.313000000000002</v>
       </c>
       <c r="W5">
-        <v>-19.148</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-164.38399999999999</v>
+        <v>-293.45999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>287.41899999999998</v>
+        <v>-5.8609999999999998</v>
       </c>
       <c r="AA5">
-        <v>209.53399999999999</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>70.328000000000003</v>
+        <v>48.029000000000003</v>
       </c>
       <c r="D6">
-        <v>787.13300000000004</v>
+        <v>485.04599999999999</v>
       </c>
       <c r="E6">
-        <v>339.42700000000002</v>
+        <v>206.691</v>
       </c>
       <c r="F6">
-        <v>603.73199999999997</v>
+        <v>370.94299999999998</v>
       </c>
       <c r="G6">
-        <v>2274.4290000000001</v>
+        <v>2858.8319999999999</v>
       </c>
       <c r="H6">
-        <v>6505.2579999999998</v>
+        <v>10107.441000000001</v>
       </c>
       <c r="I6">
-        <v>777.60199999999998</v>
+        <v>614.72400000000005</v>
       </c>
       <c r="J6">
-        <v>1249.2809999999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1185,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2553.357</v>
+        <v>1425.2670000000001</v>
       </c>
       <c r="O6">
-        <v>4200.0910000000003</v>
+        <v>1818.828</v>
       </c>
       <c r="P6">
-        <v>1249.2809999999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-576.45500000000004</v>
+        <v>139.71</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="S6">
-        <v>9480</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2305.1669999999999</v>
+        <v>8288.6129999999994</v>
       </c>
       <c r="U6">
-        <v>689.13400000000001</v>
+        <v>308.911</v>
       </c>
       <c r="V6">
-        <v>-230.47800000000001</v>
+        <v>497.68900000000002</v>
       </c>
       <c r="W6">
-        <v>-18.818000000000001</v>
+        <v>-3.7709999999999999</v>
       </c>
       <c r="X6">
-        <v>-184.23400000000001</v>
+        <v>-25.532</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-82.95</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="AA6">
-        <v>70.328000000000003</v>
+        <v>48.029000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-3.2810000000000001</v>
+        <v>73.432000000000002</v>
       </c>
       <c r="D7">
-        <v>816.48800000000006</v>
+        <v>555.00699999999995</v>
       </c>
       <c r="E7">
-        <v>414.55500000000001</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>616.39</v>
+        <v>425.52300000000002</v>
       </c>
       <c r="G7">
-        <v>2584.6419999999998</v>
+        <v>3068.5639999999999</v>
       </c>
       <c r="H7">
-        <v>6818.183</v>
+        <v>10302.609</v>
       </c>
       <c r="I7">
-        <v>1020.248</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1249.296</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1268,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3002.1889999999999</v>
+        <v>1515.4949999999999</v>
       </c>
       <c r="O7">
-        <v>4662.6840000000002</v>
+        <v>1983.2249999999999</v>
       </c>
       <c r="P7">
-        <v>1249.296</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>583.37400000000002</v>
+        <v>47.491</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2155.4989999999998</v>
+        <v>8319.384</v>
       </c>
       <c r="U7">
-        <v>1272.508</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>840.20899999999995</v>
+        <v>285.76100000000002</v>
       </c>
       <c r="W7">
-        <v>-12.204000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-175.251</v>
+        <v>4.6210000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-52.548999999999999</v>
+        <v>-2.105</v>
       </c>
       <c r="AA7">
-        <v>-3.2810000000000001</v>
+        <v>73.432000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>105.241</v>
+        <v>82.034999999999997</v>
       </c>
       <c r="D8">
-        <v>1039.98</v>
+        <v>584.65300000000002</v>
       </c>
       <c r="E8">
-        <v>512.85599999999999</v>
+        <v>180.62200000000001</v>
       </c>
       <c r="F8">
-        <v>810.23900000000003</v>
+        <v>460.63299999999998</v>
       </c>
       <c r="G8">
-        <v>3086.511</v>
+        <v>564.70399999999995</v>
       </c>
       <c r="H8">
-        <v>7505.0959999999995</v>
+        <v>7776.1760000000004</v>
       </c>
       <c r="I8">
-        <v>998.15</v>
+        <v>778.44399999999996</v>
       </c>
       <c r="J8">
-        <v>1249.3119999999999</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,81 +1351,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3450.1849999999999</v>
+        <v>1441.2059999999999</v>
       </c>
       <c r="O8">
-        <v>5163.1180000000004</v>
+        <v>1952.5260000000001</v>
       </c>
       <c r="P8">
-        <v>1249.3119999999999</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>70.837999999999994</v>
+        <v>-100.994</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2341.9780000000001</v>
+        <v>5823.65</v>
       </c>
       <c r="U8">
-        <v>1343.346</v>
+        <v>227.875</v>
       </c>
       <c r="V8">
-        <v>552.779</v>
+        <v>160.203</v>
       </c>
       <c r="W8">
-        <v>-12.205</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>89.361999999999995</v>
+        <v>-50.396000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-280.88099999999997</v>
+        <v>-0.98599999999999999</v>
       </c>
       <c r="AA8">
-        <v>105.241</v>
+        <v>82.034999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>171.477</v>
+        <v>25.234000000000002</v>
       </c>
       <c r="D9">
-        <v>1199.02</v>
+        <v>494.74900000000002</v>
       </c>
       <c r="E9">
-        <v>566.33900000000006</v>
+        <v>174.01900000000001</v>
       </c>
       <c r="F9">
-        <v>955.38699999999994</v>
+        <v>382.137</v>
       </c>
       <c r="G9">
-        <v>3091.41</v>
+        <v>590.24400000000003</v>
       </c>
       <c r="H9">
-        <v>7507.5649999999996</v>
+        <v>7756.8919999999998</v>
       </c>
       <c r="I9">
-        <v>1097.2180000000001</v>
+        <v>642.46199999999999</v>
       </c>
       <c r="J9">
-        <v>1249.328</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>230.755</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1434,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3298.5790000000002</v>
+        <v>1438.2249999999999</v>
       </c>
       <c r="O9">
-        <v>5035.2560000000003</v>
+        <v>1951.355</v>
       </c>
       <c r="P9">
-        <v>1249.328</v>
+        <v>230.755</v>
       </c>
       <c r="Q9">
-        <v>-28.617999999999999</v>
+        <v>69.540999999999997</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="T9">
-        <v>2472.3090000000002</v>
+        <v>5805.5370000000003</v>
       </c>
       <c r="U9">
-        <v>1314.7280000000001</v>
+        <v>297.416</v>
       </c>
       <c r="V9">
-        <v>53.313000000000002</v>
+        <v>-84.465999999999994</v>
       </c>
       <c r="W9">
-        <v>-18.061</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-68.037999999999997</v>
+        <v>177.81399999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>46.746000000000002</v>
+        <v>2.9470000000000001</v>
       </c>
       <c r="AA9">
-        <v>171.477</v>
+        <v>25.234000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>6.734</v>
+        <v>23.335000000000001</v>
       </c>
       <c r="D10">
-        <v>974.85900000000004</v>
+        <v>493.89800000000002</v>
       </c>
       <c r="E10">
-        <v>461.53100000000001</v>
+        <v>199.47800000000001</v>
       </c>
       <c r="F10">
-        <v>749.72699999999998</v>
+        <v>374.584</v>
       </c>
       <c r="G10">
-        <v>2642.2660000000001</v>
+        <v>889.67200000000003</v>
       </c>
       <c r="H10">
-        <v>7132.7460000000001</v>
+        <v>8024.0439999999999</v>
       </c>
       <c r="I10">
-        <v>954.07100000000003</v>
+        <v>669.31399999999996</v>
       </c>
       <c r="J10">
-        <v>1249.345</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-230.48</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3010.0749999999998</v>
+        <v>1623.652</v>
       </c>
       <c r="O10">
-        <v>4729.8850000000002</v>
+        <v>2100.306</v>
       </c>
       <c r="P10">
-        <v>1249.345</v>
+        <v>0.373</v>
       </c>
       <c r="Q10">
-        <v>-21.567</v>
+        <v>211.614</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="S10">
-        <v>12330</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2402.8609999999999</v>
+        <v>5923.7380000000003</v>
       </c>
       <c r="U10">
-        <v>1293.1610000000001</v>
+        <v>509.03</v>
       </c>
       <c r="V10">
-        <v>-216.726</v>
+        <v>451.92700000000002</v>
       </c>
       <c r="W10">
-        <v>-17.307210000000001</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-118.86</v>
+        <v>-228.92</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>369.12</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="AA10">
-        <v>6.734</v>
+        <v>23.335000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-104.226</v>
+        <v>95.481999999999999</v>
       </c>
       <c r="D11">
-        <v>1012.367</v>
+        <v>598.45799999999997</v>
       </c>
       <c r="E11">
-        <v>627.79200000000003</v>
+        <v>202.91300000000001</v>
       </c>
       <c r="F11">
-        <v>761.78599999999994</v>
+        <v>470.00900000000001</v>
       </c>
       <c r="G11">
-        <v>2980.8710000000001</v>
+        <v>1019.162</v>
       </c>
       <c r="H11">
-        <v>8432.42</v>
+        <v>8149.98</v>
       </c>
       <c r="I11">
-        <v>1124.289</v>
+        <v>738.66899999999998</v>
       </c>
       <c r="J11">
-        <v>1249.3610000000001</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1600,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3984.3069999999998</v>
+        <v>1814.046</v>
       </c>
       <c r="O11">
-        <v>5807.165</v>
+        <v>2263.576</v>
       </c>
       <c r="P11">
-        <v>1249.3610000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Q11">
-        <v>-210.363</v>
+        <v>134.31100000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2625.2550000000001</v>
+        <v>5886.4040000000005</v>
       </c>
       <c r="U11">
-        <v>1082.798</v>
+        <v>643.34100000000001</v>
       </c>
       <c r="V11">
-        <v>881.08900000000006</v>
+        <v>256.98599999999999</v>
       </c>
       <c r="W11">
-        <v>-17.983000000000001</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-78.350999999999999</v>
+        <v>-108.703</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-352.88299999999998</v>
+        <v>-1.2130000000000001</v>
       </c>
       <c r="AA11">
-        <v>-104.226</v>
+        <v>95.481999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>71.5</v>
+        <v>58.976999999999997</v>
       </c>
       <c r="D12">
-        <v>1205.0170000000001</v>
+        <v>613.94200000000001</v>
       </c>
       <c r="E12">
-        <v>684.875</v>
+        <v>216.947</v>
       </c>
       <c r="F12">
-        <v>942.41</v>
+        <v>480.84800000000001</v>
       </c>
       <c r="G12">
-        <v>3263.71</v>
+        <v>1295.9549999999999</v>
       </c>
       <c r="H12">
-        <v>8744.0959999999995</v>
+        <v>8384.232</v>
       </c>
       <c r="I12">
-        <v>1252.3620000000001</v>
+        <v>785.38599999999997</v>
       </c>
       <c r="J12">
-        <v>1249.3779999999999</v>
+        <v>500</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,78 +1683,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4210.9120000000003</v>
+        <v>1627.114</v>
       </c>
       <c r="O12">
-        <v>6048.1679999999997</v>
+        <v>2533.819</v>
       </c>
       <c r="P12">
-        <v>1249.3779999999999</v>
+        <v>500.25599999999997</v>
       </c>
       <c r="Q12">
-        <v>229.01900000000001</v>
+        <v>302.351</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2695.9279999999999</v>
+        <v>5850.4129999999996</v>
       </c>
       <c r="U12">
-        <v>1311.817</v>
+        <v>945.69200000000001</v>
       </c>
       <c r="V12">
-        <v>318.51900000000001</v>
+        <v>14.654999999999999</v>
       </c>
       <c r="W12">
-        <v>-17.638000000000002</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-11.680999999999999</v>
+        <v>335.08800000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-4.0890000000000004</v>
+        <v>-0.188</v>
       </c>
       <c r="AA12">
-        <v>71.5</v>
+        <v>58.976999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>67.14</v>
       </c>
       <c r="D13">
-        <v>1401.86</v>
+        <v>531.28800000000001</v>
       </c>
       <c r="E13">
-        <v>695.13699999999994</v>
+        <v>211.43</v>
       </c>
       <c r="F13">
-        <v>1125.5419999999999</v>
+        <v>409.50700000000001</v>
       </c>
       <c r="G13">
-        <v>2705.806</v>
+        <v>1177.818</v>
       </c>
       <c r="H13">
-        <v>8201.61</v>
+        <v>8264.3169999999991</v>
       </c>
       <c r="I13">
-        <v>1209.6420000000001</v>
+        <v>720.73699999999997</v>
       </c>
       <c r="J13">
-        <v>1249.395</v>
+        <v>500</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1766,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3721.4189999999999</v>
+        <v>1402.588</v>
       </c>
       <c r="O13">
-        <v>5538.6379999999999</v>
+        <v>2298.2710000000002</v>
       </c>
       <c r="P13">
-        <v>1249.395</v>
+        <v>500</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-92.418000000000006</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="T13">
-        <v>2662.9720000000002</v>
+        <v>5966.0460000000003</v>
       </c>
       <c r="U13">
-        <v>1394.498</v>
+        <v>853.274</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-106.128</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>12.307</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AA13">
-        <v>170.85900000000001</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>94.716999999999999</v>
+        <v>34.776000000000003</v>
       </c>
       <c r="D14">
-        <v>1152.0150000000001</v>
+        <v>550.51099999999997</v>
       </c>
       <c r="E14">
-        <v>614.73500000000001</v>
+        <v>289.92599999999999</v>
       </c>
       <c r="F14">
-        <v>903.48699999999997</v>
+        <v>429.21300000000002</v>
       </c>
       <c r="G14">
-        <v>2219.2869999999998</v>
+        <v>1114.6569999999999</v>
       </c>
       <c r="H14">
-        <v>7739.4809999999998</v>
+        <v>8258.7530000000006</v>
       </c>
       <c r="I14">
-        <v>1044.259</v>
+        <v>812.64499999999998</v>
       </c>
       <c r="J14">
-        <v>1249.412</v>
+        <v>500</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1846,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="N14">
-        <v>3294.3809999999999</v>
+        <v>1928.712</v>
       </c>
       <c r="O14">
-        <v>5115.625</v>
+        <v>2899.1190000000001</v>
       </c>
       <c r="P14">
-        <v>1249.412</v>
+        <v>500</v>
       </c>
       <c r="Q14">
-        <v>-373.46499999999997</v>
+        <v>-215.55199999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="S14">
-        <v>14570</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2623.8560000000002</v>
+        <v>5359.634</v>
       </c>
       <c r="U14">
-        <v>1021.033</v>
+        <v>637.72199999999998</v>
       </c>
       <c r="V14">
-        <v>-212.215</v>
+        <v>538.05600000000004</v>
       </c>
       <c r="W14">
-        <v>-19.68</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-172.161</v>
+        <v>-666.48699999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>87.08</v>
+        <v>-28.507000000000001</v>
       </c>
       <c r="AA14">
-        <v>94.716999999999999</v>
+        <v>34.776000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-14.304</v>
+        <v>96.135999999999996</v>
       </c>
       <c r="D15">
-        <v>1200.3710000000001</v>
+        <v>689.923</v>
       </c>
       <c r="E15">
-        <v>818.81799999999998</v>
+        <v>313.33499999999998</v>
       </c>
       <c r="F15">
-        <v>905.75199999999995</v>
+        <v>546.27700000000004</v>
       </c>
       <c r="G15">
-        <v>3314.9540000000002</v>
+        <v>1526.384</v>
       </c>
       <c r="H15">
-        <v>8888.3770000000004</v>
+        <v>8675.5869999999995</v>
       </c>
       <c r="I15">
-        <v>1055.645</v>
+        <v>932.43600000000004</v>
       </c>
       <c r="J15">
-        <v>1249.43</v>
+        <v>500</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1932,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4449.2550000000001</v>
+        <v>2216.739</v>
       </c>
       <c r="O15">
-        <v>6291.2889999999998</v>
+        <v>3177.3649999999998</v>
       </c>
       <c r="P15">
-        <v>1249.43</v>
+        <v>500</v>
       </c>
       <c r="Q15">
-        <v>463.03300000000002</v>
+        <v>373.68200000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2597.0880000000002</v>
+        <v>5498.2219999999998</v>
       </c>
       <c r="U15">
-        <v>1484.066</v>
+        <v>1011.404</v>
       </c>
       <c r="V15">
-        <v>971.43799999999999</v>
+        <v>384.55700000000002</v>
       </c>
       <c r="W15">
-        <v>-19.602</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-78.203999999999994</v>
+        <v>23.741</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-359.70800000000003</v>
+        <v>-1.087</v>
       </c>
       <c r="AA15">
-        <v>-14.304</v>
+        <v>96.135999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>89.373000000000005</v>
+        <v>99.594999999999999</v>
       </c>
       <c r="D16">
-        <v>1494.6320000000001</v>
+        <v>759.596</v>
       </c>
       <c r="E16">
-        <v>927.90899999999999</v>
+        <v>317.90100000000001</v>
       </c>
       <c r="F16">
-        <v>1194.1310000000001</v>
+        <v>608.54300000000001</v>
       </c>
       <c r="G16">
-        <v>3640.9650000000001</v>
+        <v>1318.72</v>
       </c>
       <c r="H16">
-        <v>9234.8289999999997</v>
+        <v>8462.1260000000002</v>
       </c>
       <c r="I16">
-        <v>1191.346</v>
+        <v>1009.2190000000001</v>
       </c>
       <c r="J16">
-        <v>1249.4480000000001</v>
+        <v>1000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2015,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4857.8770000000004</v>
+        <v>2090.8380000000002</v>
       </c>
       <c r="O16">
-        <v>6755.2849999999999</v>
+        <v>3557.288</v>
       </c>
       <c r="P16">
-        <v>1249.4480000000001</v>
+        <v>1000</v>
       </c>
       <c r="Q16">
-        <v>-50.246000000000002</v>
+        <v>-174.87299999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2479.5439999999999</v>
+        <v>4904.8379999999997</v>
       </c>
       <c r="U16">
-        <v>1433.82</v>
+        <v>836.53099999999995</v>
       </c>
       <c r="V16">
-        <v>493.50400000000002</v>
+        <v>42.743000000000002</v>
       </c>
       <c r="W16">
-        <v>-19.231000000000002</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-217.40600000000001</v>
+        <v>-216.666</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-246.86799999999999</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="AA16">
-        <v>89.373000000000005</v>
+        <v>99.594999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>257.05900000000003</v>
+        <v>65.356999999999999</v>
       </c>
       <c r="D17">
-        <v>1712.5039999999999</v>
+        <v>665.30200000000002</v>
       </c>
       <c r="E17">
-        <v>887.43600000000004</v>
+        <v>268.00799999999998</v>
       </c>
       <c r="F17">
-        <v>1412.796</v>
+        <v>518.89800000000002</v>
       </c>
       <c r="G17">
-        <v>3836.8180000000002</v>
+        <v>1045.655</v>
       </c>
       <c r="H17">
-        <v>9424.9879999999994</v>
+        <v>8295.4220000000005</v>
       </c>
       <c r="I17">
-        <v>1272.7090000000001</v>
+        <v>852.27700000000004</v>
       </c>
       <c r="J17">
-        <v>1746.712</v>
+        <v>1085</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2098,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4541.7070000000003</v>
+        <v>1774.3520000000001</v>
       </c>
       <c r="O17">
-        <v>6902.6660000000002</v>
+        <v>3415.4059999999999</v>
       </c>
       <c r="P17">
-        <v>1746.712</v>
+        <v>1085</v>
       </c>
       <c r="Q17">
-        <v>818.928</v>
+        <v>-219.14500000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="T17">
-        <v>2522.3220000000001</v>
+        <v>4880.0159999999996</v>
       </c>
       <c r="U17">
-        <v>2252.748</v>
+        <v>617.38599999999997</v>
       </c>
       <c r="V17">
-        <v>101.86</v>
+        <v>-253.28700000000001</v>
       </c>
       <c r="W17">
-        <v>-22.943999999999999</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>374.447</v>
+        <v>69.433000000000007</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>519.25800000000004</v>
+        <v>-3.5489999999999999</v>
       </c>
       <c r="AA17">
-        <v>257.05900000000003</v>
+        <v>65.356999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>65.968999999999994</v>
+        <v>51.305999999999997</v>
       </c>
       <c r="D18">
-        <v>1355.9780000000001</v>
+        <v>687.81700000000001</v>
       </c>
       <c r="E18">
-        <v>778.33399999999995</v>
+        <v>367.93</v>
       </c>
       <c r="F18">
-        <v>1071.7249999999999</v>
+        <v>535.55700000000002</v>
       </c>
       <c r="G18">
-        <v>2924.489</v>
+        <v>1298.54</v>
       </c>
       <c r="H18">
-        <v>9020.5380000000005</v>
+        <v>8630.7729999999992</v>
       </c>
       <c r="I18">
-        <v>1188.4829999999999</v>
+        <v>962.31700000000001</v>
       </c>
       <c r="J18">
-        <v>1746.787</v>
+        <v>740</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2178,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-345</v>
       </c>
       <c r="N18">
-        <v>4186.6149999999998</v>
+        <v>2368.3969999999999</v>
       </c>
       <c r="O18">
-        <v>6566.7359999999999</v>
+        <v>3684.3649999999998</v>
       </c>
       <c r="P18">
-        <v>1746.787</v>
+        <v>740</v>
       </c>
       <c r="Q18">
-        <v>-850.048</v>
+        <v>80.481999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="S18">
-        <v>18210</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2453.8020000000001</v>
+        <v>4946.4080000000004</v>
       </c>
       <c r="U18">
-        <v>1402.7</v>
+        <v>697.86800000000005</v>
       </c>
       <c r="V18">
-        <v>-199.84299999999999</v>
+        <v>563.779</v>
       </c>
       <c r="W18">
-        <v>-22.92</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-30.687999999999999</v>
+        <v>-366.24599999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>55.664999999999999</v>
+        <v>-7.157</v>
       </c>
       <c r="AA18">
-        <v>65.968999999999994</v>
+        <v>51.305999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>44.143000000000001</v>
+        <v>96.088999999999999</v>
       </c>
       <c r="D19">
-        <v>1373.3969999999999</v>
+        <v>795.048</v>
       </c>
       <c r="E19">
-        <v>985.024</v>
+        <v>398.5</v>
       </c>
       <c r="F19">
-        <v>1051.479</v>
+        <v>625.02099999999996</v>
       </c>
       <c r="G19">
-        <v>3485.9279999999999</v>
+        <v>1683.3589999999999</v>
       </c>
       <c r="H19">
-        <v>10135.088</v>
+        <v>9121.482</v>
       </c>
       <c r="I19">
-        <v>1255.6099999999999</v>
+        <v>1016.205</v>
       </c>
       <c r="J19">
-        <v>1746.8620000000001</v>
+        <v>894.29600000000005</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2264,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5382.6490000000003</v>
+        <v>2579.2710000000002</v>
       </c>
       <c r="O19">
-        <v>7779.1319999999996</v>
+        <v>4052.1390000000001</v>
       </c>
       <c r="P19">
-        <v>1746.8620000000001</v>
+        <v>894.29600000000005</v>
       </c>
       <c r="Q19">
-        <v>332.58300000000003</v>
+        <v>329.685</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2355.9560000000001</v>
+        <v>5069.3429999999998</v>
       </c>
       <c r="U19">
-        <v>1735.2829999999999</v>
+        <v>1027.5530000000001</v>
       </c>
       <c r="V19">
-        <v>1051.0640000000001</v>
+        <v>307.27499999999998</v>
       </c>
       <c r="W19">
-        <v>-22.895</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-26.664000000000001</v>
+        <v>157.27099999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-217.024</v>
+        <v>-3.9489999999999998</v>
       </c>
       <c r="AA19">
-        <v>44.143000000000001</v>
+        <v>96.088999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>449.64400000000001</v>
+        <v>94.823999999999998</v>
       </c>
       <c r="D20">
-        <v>1662.6</v>
+        <v>833.33699999999999</v>
       </c>
       <c r="E20">
-        <v>1123.5550000000001</v>
+        <v>351.255</v>
       </c>
       <c r="F20">
-        <v>1341.518</v>
+        <v>655.60199999999998</v>
       </c>
       <c r="G20">
-        <v>4990.3919999999998</v>
+        <v>1285.79</v>
       </c>
       <c r="H20">
-        <v>11831.925999999999</v>
+        <v>8989.2289999999994</v>
       </c>
       <c r="I20">
-        <v>1346.242</v>
+        <v>966.79600000000005</v>
       </c>
       <c r="J20">
-        <v>2472.5360000000001</v>
+        <v>1144.421</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2347,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5968.2280000000001</v>
+        <v>2050.8989999999999</v>
       </c>
       <c r="O20">
-        <v>9099.268</v>
+        <v>3821.79</v>
       </c>
       <c r="P20">
-        <v>2472.5360000000001</v>
+        <v>1144.421</v>
       </c>
       <c r="Q20">
-        <v>1451.846</v>
+        <v>-367.88200000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2732.6579999999999</v>
+        <v>5167.4390000000003</v>
       </c>
       <c r="U20">
-        <v>3187.1289999999999</v>
+        <v>659.67100000000005</v>
       </c>
       <c r="V20">
-        <v>610.96699999999998</v>
+        <v>-103.52500000000001</v>
       </c>
       <c r="W20">
-        <v>-23.096</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>712.70399999999995</v>
+        <v>271.33199999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-62.76</v>
+        <v>21.004999999999999</v>
       </c>
       <c r="AA20">
-        <v>449.64400000000001</v>
+        <v>94.823999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>283.21600000000001</v>
+        <v>-2759.982</v>
       </c>
       <c r="D21">
-        <v>1937.7529999999999</v>
+        <v>620.81100000000004</v>
       </c>
       <c r="E21">
-        <v>1242.3030000000001</v>
+        <v>267.27</v>
       </c>
       <c r="F21">
-        <v>1609.6869999999999</v>
+        <v>482.12400000000002</v>
       </c>
       <c r="G21">
-        <v>3173.4720000000002</v>
+        <v>1198.7139999999999</v>
       </c>
       <c r="H21">
-        <v>12403.272999999999</v>
+        <v>5894.2489999999998</v>
       </c>
       <c r="I21">
-        <v>1442.35</v>
+        <v>775.59299999999996</v>
       </c>
       <c r="J21">
-        <v>2475.4250000000002</v>
+        <v>1544.548</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2430,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5941.2460000000001</v>
+        <v>1566.1679999999999</v>
       </c>
       <c r="O21">
-        <v>9329.5949999999993</v>
+        <v>3513.2849999999999</v>
       </c>
       <c r="P21">
-        <v>2475.4250000000002</v>
+        <v>1544.548</v>
       </c>
       <c r="Q21">
-        <v>-1731.79</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>8050</v>
       </c>
       <c r="T21">
-        <v>3073.6779999999999</v>
+        <v>2380.9639999999999</v>
       </c>
       <c r="U21">
-        <v>1455.3389999999999</v>
+        <v>665.41200000000003</v>
       </c>
       <c r="V21">
-        <v>-120.505</v>
+        <v>-246.84100000000001</v>
       </c>
       <c r="W21">
-        <v>-31.181999999999999</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>38.768000000000001</v>
+        <v>402.44400000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>159.726</v>
+        <v>-100.04300000000001</v>
       </c>
       <c r="AA21">
-        <v>283.21600000000001</v>
+        <v>-2759.982</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-12.538</v>
+        <v>39.384</v>
       </c>
       <c r="D22">
-        <v>1698.567</v>
+        <v>635.71199999999999</v>
       </c>
       <c r="E22">
-        <v>1082.4059999999999</v>
+        <v>323.67099999999999</v>
       </c>
       <c r="F22">
-        <v>1360.0740000000001</v>
+        <v>492.19900000000001</v>
       </c>
       <c r="G22">
-        <v>2976.261</v>
+        <v>1090.5029999999999</v>
       </c>
       <c r="H22">
-        <v>15485.674999999999</v>
+        <v>5748.7709999999997</v>
       </c>
       <c r="I22">
-        <v>1329.87</v>
+        <v>812.04700000000003</v>
       </c>
       <c r="J22">
-        <v>3183.14</v>
+        <v>894.678</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,167 +2510,167 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="N22">
-        <v>5926.0169999999998</v>
+        <v>2040.5630000000001</v>
       </c>
       <c r="O22">
-        <v>9897.43</v>
+        <v>3348.21</v>
       </c>
       <c r="P22">
-        <v>3585.14</v>
+        <v>894.678</v>
       </c>
       <c r="Q22">
-        <v>220.96</v>
+        <v>-190.178</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="S22">
-        <v>18730</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5588.2449999999999</v>
+        <v>2400.5610000000001</v>
       </c>
       <c r="U22">
-        <v>1676.299</v>
+        <v>475.23399999999998</v>
       </c>
       <c r="V22">
-        <v>-173.48099999999999</v>
+        <v>502.00400000000002</v>
       </c>
       <c r="W22">
-        <v>-31.353999999999999</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>679.39099999999996</v>
+        <v>-668.47799999999995</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>9.6519999999999992</v>
+        <v>2.903</v>
       </c>
       <c r="AA22">
-        <v>-12.538</v>
+        <v>39.384</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-108.589</v>
+        <v>40.902000000000001</v>
       </c>
       <c r="D23">
-        <v>1903.961</v>
+        <v>769.76800000000003</v>
       </c>
       <c r="E23">
-        <v>1363.3209999999999</v>
+        <v>371.41699999999997</v>
       </c>
       <c r="F23">
-        <v>1501.3910000000001</v>
+        <v>621.00599999999997</v>
       </c>
       <c r="G23">
-        <v>3796.1320000000001</v>
+        <v>1516.9659999999999</v>
       </c>
       <c r="H23">
-        <v>16390.044000000002</v>
+        <v>6206.0649999999996</v>
       </c>
       <c r="I23">
-        <v>1372.34</v>
+        <v>936.40800000000002</v>
       </c>
       <c r="J23">
-        <v>3210.491</v>
+        <v>894.81100000000004</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-400.44299999999998</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6957.96</v>
+        <v>2392.6489999999999</v>
       </c>
       <c r="O23">
-        <v>11022.851000000001</v>
+        <v>3715.9989999999998</v>
       </c>
       <c r="P23">
-        <v>3235.491</v>
+        <v>894.81100000000004</v>
       </c>
       <c r="Q23">
-        <v>387.03</v>
+        <v>387.06</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5367.1930000000002</v>
+        <v>2490.0659999999998</v>
       </c>
       <c r="U23">
-        <v>2063.3290000000002</v>
+        <v>862.29399999999998</v>
       </c>
       <c r="V23">
-        <v>1108.3230000000001</v>
+        <v>342.54599999999999</v>
       </c>
       <c r="W23">
-        <v>-36.173999999999999</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-612.95100000000002</v>
+        <v>-9.4960000000000004</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>8.2149999999999999</v>
+        <v>42.188000000000002</v>
       </c>
       <c r="AA23">
-        <v>-108.589</v>
+        <v>40.902000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>31.649000000000001</v>
+        <v>117.014</v>
       </c>
       <c r="D24">
-        <v>2195.8690000000001</v>
+        <v>852.428</v>
       </c>
       <c r="E24">
-        <v>1454.518</v>
+        <v>367.935</v>
       </c>
       <c r="F24">
-        <v>1789.489</v>
+        <v>682.99199999999996</v>
       </c>
       <c r="G24">
-        <v>4163.9769999999999</v>
+        <v>1455.981</v>
       </c>
       <c r="H24">
-        <v>16728.542000000001</v>
+        <v>6147.1930000000002</v>
       </c>
       <c r="I24">
-        <v>1455.758</v>
+        <v>953.91700000000003</v>
       </c>
       <c r="J24">
-        <v>3197.8470000000002</v>
+        <v>894.947</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2679,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>7446.7550000000001</v>
+        <v>2177.6390000000001</v>
       </c>
       <c r="O24">
-        <v>11477.788</v>
+        <v>3511.0450000000001</v>
       </c>
       <c r="P24">
-        <v>3212.8470000000002</v>
+        <v>894.947</v>
       </c>
       <c r="Q24">
-        <v>233.19499999999999</v>
+        <v>-23.715</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5250.7539999999999</v>
+        <v>2636.1480000000001</v>
       </c>
       <c r="U24">
-        <v>2296.5239999999999</v>
+        <v>838.57899999999995</v>
       </c>
       <c r="V24">
-        <v>617.774</v>
+        <v>-24.218</v>
       </c>
       <c r="W24">
-        <v>-35.773000000000003</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-135.53800000000001</v>
+        <v>6.3650000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-5.9029999999999996</v>
+        <v>-0.92</v>
       </c>
       <c r="AA24">
-        <v>31.649000000000001</v>
+        <v>117.014</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>279.33100000000002</v>
+        <v>102.226</v>
       </c>
       <c r="D25">
-        <v>2580.9050000000002</v>
+        <v>697.51800000000003</v>
       </c>
       <c r="E25">
-        <v>1383.7739999999999</v>
+        <v>307.81700000000001</v>
       </c>
       <c r="F25">
-        <v>2163.998</v>
+        <v>551.97799999999995</v>
       </c>
       <c r="G25">
-        <v>3620.2939999999999</v>
+        <v>1225.049</v>
       </c>
       <c r="H25">
-        <v>16131.766</v>
+        <v>5937.1559999999999</v>
       </c>
       <c r="I25">
-        <v>1488.1079999999999</v>
+        <v>813.36400000000003</v>
       </c>
       <c r="J25">
-        <v>3204.21</v>
+        <v>895.08600000000001</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2762,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>6619.4380000000001</v>
+        <v>1835.057</v>
       </c>
       <c r="O25">
-        <v>10600.174000000001</v>
+        <v>3187.43</v>
       </c>
       <c r="P25">
-        <v>3209.21</v>
+        <v>895.08600000000001</v>
       </c>
       <c r="Q25">
-        <v>-452.04899999999998</v>
+        <v>-196.035</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>7960</v>
       </c>
       <c r="T25">
-        <v>5531.5919999999996</v>
+        <v>2749.7260000000001</v>
       </c>
       <c r="U25">
-        <v>1844.4749999999999</v>
+        <v>642.54399999999998</v>
       </c>
       <c r="V25">
-        <v>-182.41900000000001</v>
+        <v>-144.328</v>
       </c>
       <c r="W25">
-        <v>-39.061999999999998</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-66.808000000000007</v>
+        <v>11.276999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>8.8789999999999996</v>
+        <v>3.0179999999999998</v>
       </c>
       <c r="AA25">
-        <v>279.33100000000002</v>
+        <v>102.226</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>79.456999999999994</v>
+        <v>59.395000000000003</v>
       </c>
       <c r="D26">
-        <v>2092.8290000000002</v>
+        <v>717.91899999999998</v>
       </c>
       <c r="E26">
-        <v>1343.2470000000001</v>
+        <v>376.66899999999998</v>
       </c>
       <c r="F26">
-        <v>1721.9880000000001</v>
+        <v>559.88900000000001</v>
       </c>
       <c r="G26">
-        <v>3450.2510000000002</v>
+        <v>1713.3779999999999</v>
       </c>
       <c r="H26">
-        <v>15777.546</v>
+        <v>6420.4709999999995</v>
       </c>
       <c r="I26">
-        <v>1509.3130000000001</v>
+        <v>897.62599999999998</v>
       </c>
       <c r="J26">
-        <v>3159.3359999999998</v>
+        <v>895.22799999999995</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2845,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6127.1980000000003</v>
+        <v>2444.6350000000002</v>
       </c>
       <c r="O26">
-        <v>10084.442999999999</v>
+        <v>3813.6039999999998</v>
       </c>
       <c r="P26">
-        <v>3159.3359999999998</v>
+        <v>895.22799999999995</v>
       </c>
       <c r="Q26">
-        <v>-47.664000000000001</v>
+        <v>354.91699999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="S26">
-        <v>20075</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>5693.1030000000001</v>
+        <v>2606.8670000000002</v>
       </c>
       <c r="U26">
-        <v>1796.8109999999999</v>
+        <v>997.46100000000001</v>
       </c>
       <c r="V26">
-        <v>20.655999999999999</v>
+        <v>619.52700000000004</v>
       </c>
       <c r="W26">
-        <v>-39.15</v>
+        <v>-20.22</v>
       </c>
       <c r="X26">
-        <v>124.678</v>
+        <v>-200.50800000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>4.3920000000000003</v>
+        <v>-25.475000000000001</v>
       </c>
       <c r="AA26">
-        <v>79.456999999999994</v>
+        <v>59.395000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-86</v>
+        <v>114.262</v>
       </c>
       <c r="D27">
-        <v>2189</v>
+        <v>833.96</v>
       </c>
       <c r="E27">
-        <v>1579.6569999999999</v>
+        <v>390.685</v>
       </c>
       <c r="F27">
-        <v>1767</v>
+        <v>665.38900000000001</v>
       </c>
       <c r="G27">
-        <v>5328.4129999999996</v>
+        <v>1815.691</v>
       </c>
       <c r="H27">
-        <v>17668.905999999999</v>
+        <v>6622.8940000000002</v>
       </c>
       <c r="I27">
-        <v>1423.701</v>
+        <v>1003.184</v>
       </c>
       <c r="J27">
-        <v>3170.933</v>
+        <v>895.37400000000002</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2928,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>8019.5709999999999</v>
+        <v>2587.2220000000002</v>
       </c>
       <c r="O27">
-        <v>12009.848</v>
+        <v>3956.34</v>
       </c>
       <c r="P27">
-        <v>3170.933</v>
+        <v>895.37400000000002</v>
       </c>
       <c r="Q27">
-        <v>721</v>
+        <v>-201.607</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5659.058</v>
+        <v>2666.5540000000001</v>
       </c>
       <c r="U27">
-        <v>2503.23</v>
+        <v>795.85400000000004</v>
       </c>
       <c r="V27">
-        <v>1688</v>
+        <v>313.80599999999998</v>
       </c>
       <c r="W27">
-        <v>-42</v>
+        <v>-19.902000000000001</v>
       </c>
       <c r="X27">
-        <v>-48</v>
+        <v>-40.271999999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-774</v>
+        <v>-357.096</v>
       </c>
       <c r="AA27">
-        <v>-86</v>
+        <v>114.262</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>176.55</v>
       </c>
       <c r="D28">
-        <v>2586</v>
+        <v>987.86</v>
       </c>
       <c r="E28">
-        <v>1809.6179999999999</v>
+        <v>408.089</v>
       </c>
       <c r="F28">
-        <v>2147</v>
+        <v>797.827</v>
       </c>
       <c r="G28">
-        <v>6026.5609999999997</v>
+        <v>2208.3220000000001</v>
       </c>
       <c r="H28">
-        <v>18623.248</v>
+        <v>7132.741</v>
       </c>
       <c r="I28">
-        <v>1714.8</v>
+        <v>1035.7950000000001</v>
       </c>
       <c r="J28">
-        <v>3220.9459999999999</v>
+        <v>1644.7280000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3011,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>8744.5020000000004</v>
+        <v>2380.223</v>
       </c>
       <c r="O28">
-        <v>12801.132</v>
+        <v>4360.8869999999997</v>
       </c>
       <c r="P28">
-        <v>3220.9459999999999</v>
+        <v>1644.7280000000001</v>
       </c>
       <c r="Q28">
-        <v>384</v>
+        <v>155.017</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5822.116</v>
+        <v>2771.8539999999998</v>
       </c>
       <c r="U28">
-        <v>2874.8229999999999</v>
+        <v>950.87099999999998</v>
       </c>
       <c r="V28">
-        <v>701</v>
+        <v>4.3840000000000003</v>
       </c>
       <c r="W28">
-        <v>-43</v>
+        <v>-19.702999999999999</v>
       </c>
       <c r="X28">
-        <v>-33</v>
+        <v>481.77199999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-42</v>
+        <v>-327.59199999999998</v>
       </c>
       <c r="AA28">
-        <v>57</v>
+        <v>176.55</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>2966</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1835.2860000000001</v>
+        <v>275.846</v>
       </c>
       <c r="F29">
-        <v>2507</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>5983.8019999999997</v>
+        <v>1707.5550000000001</v>
       </c>
       <c r="H29">
-        <v>19035.232</v>
+        <v>6656.9219999999996</v>
       </c>
       <c r="I29">
-        <v>1780.3409999999999</v>
+        <v>875.726</v>
       </c>
       <c r="J29">
-        <v>3735.7359999999999</v>
+        <v>1249.221</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3094,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>8272.5560000000005</v>
+        <v>1895.347</v>
       </c>
       <c r="O29">
-        <v>12797.453</v>
+        <v>3920.2190000000001</v>
       </c>
       <c r="P29">
-        <v>4235.7359999999999</v>
+        <v>1249.221</v>
       </c>
       <c r="Q29">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="T29">
-        <v>6237.7790000000005</v>
+        <v>2736.703</v>
       </c>
       <c r="U29">
-        <v>3239.886</v>
+        <v>621.19899999999996</v>
       </c>
       <c r="V29">
-        <v>-443</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>52.039000000000001</v>
       </c>
       <c r="D30">
-        <v>2319</v>
+        <v>727.83500000000004</v>
       </c>
       <c r="E30">
-        <v>1866</v>
+        <v>434.04500000000002</v>
       </c>
       <c r="F30">
-        <v>1882</v>
+        <v>552.22500000000002</v>
       </c>
       <c r="G30">
-        <v>5540</v>
+        <v>2427.4499999999998</v>
       </c>
       <c r="H30">
-        <v>18516</v>
+        <v>7457.5879999999997</v>
       </c>
       <c r="I30">
-        <v>1838</v>
+        <v>1005.499</v>
       </c>
       <c r="J30">
-        <v>3749</v>
+        <v>1645.0640000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3177,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>7879</v>
+        <v>2652.88</v>
       </c>
       <c r="O30">
-        <v>12365</v>
+        <v>4688.4889999999996</v>
       </c>
       <c r="P30">
-        <v>4249</v>
+        <v>1645.0640000000001</v>
       </c>
       <c r="Q30">
-        <v>-371</v>
+        <v>250.054</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="S30">
-        <v>22615</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>6151</v>
+        <v>2769.0990000000002</v>
       </c>
       <c r="U30">
-        <v>2847</v>
+        <v>953.16899999999998</v>
       </c>
       <c r="V30">
-        <v>-101</v>
+        <v>732.85299999999995</v>
       </c>
       <c r="W30">
-        <v>-46</v>
+        <v>-19.352</v>
       </c>
       <c r="X30">
-        <v>-173</v>
+        <v>-67.483000000000004</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>77</v>
+        <v>-379.27300000000002</v>
       </c>
       <c r="AA30">
-        <v>55</v>
+        <v>52.039000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-137</v>
+        <v>140.393</v>
       </c>
       <c r="D31">
-        <v>2508</v>
+        <v>913.59100000000001</v>
       </c>
       <c r="E31">
-        <v>2253</v>
+        <v>469.488</v>
       </c>
       <c r="F31">
-        <v>2021</v>
+        <v>717.78099999999995</v>
       </c>
       <c r="G31">
-        <v>7431</v>
+        <v>2954</v>
       </c>
       <c r="H31">
-        <v>20429</v>
+        <v>8045.277</v>
       </c>
       <c r="I31">
-        <v>1713</v>
+        <v>1139.644</v>
       </c>
       <c r="J31">
-        <v>3771</v>
+        <v>1645.2370000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3260,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>9991</v>
+        <v>2998.1190000000001</v>
       </c>
       <c r="O31">
-        <v>14599</v>
+        <v>5031.4290000000001</v>
       </c>
       <c r="P31">
-        <v>4271</v>
+        <v>1645.2370000000001</v>
       </c>
       <c r="Q31">
-        <v>729</v>
+        <v>426.03199999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5830</v>
+        <v>3013.848</v>
       </c>
       <c r="U31">
-        <v>3423</v>
+        <v>1409.008</v>
       </c>
       <c r="V31">
-        <v>1676</v>
+        <v>457.24299999999999</v>
       </c>
       <c r="W31">
-        <v>-46</v>
+        <v>-19.231999999999999</v>
       </c>
       <c r="X31">
-        <v>-236</v>
+        <v>62.606999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-550</v>
+        <v>-41.305999999999997</v>
       </c>
       <c r="AA31">
-        <v>-137</v>
+        <v>140.393</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>209.53399999999999</v>
       </c>
       <c r="D32">
-        <v>2880</v>
+        <v>1020.45</v>
       </c>
       <c r="E32">
-        <v>2359</v>
+        <v>431.06400000000002</v>
       </c>
       <c r="F32">
-        <v>2382</v>
+        <v>813.99900000000002</v>
       </c>
       <c r="G32">
-        <v>7794</v>
+        <v>2598.1729999999998</v>
       </c>
       <c r="H32">
-        <v>20554</v>
+        <v>7676.683</v>
       </c>
       <c r="I32">
-        <v>1811</v>
+        <v>1106.8689999999999</v>
       </c>
       <c r="J32">
-        <v>3731</v>
+        <v>1645.414</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3343,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>10497</v>
+        <v>2616.2689999999998</v>
       </c>
       <c r="O32">
-        <v>14982</v>
+        <v>4638.6629999999996</v>
       </c>
       <c r="P32">
-        <v>4231</v>
+        <v>1645.414</v>
       </c>
       <c r="Q32">
-        <v>-234</v>
+        <v>-31.696000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5572</v>
+        <v>3038.02</v>
       </c>
       <c r="U32">
-        <v>3072</v>
+        <v>1453.508</v>
       </c>
       <c r="V32">
-        <v>815</v>
+        <v>-56.985999999999997</v>
       </c>
       <c r="W32">
-        <v>-45</v>
+        <v>-19.148</v>
       </c>
       <c r="X32">
-        <v>-220</v>
+        <v>-164.38399999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-495</v>
+        <v>287.41899999999998</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>209.53399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>525</v>
+        <v>70.328000000000003</v>
       </c>
       <c r="D33">
-        <v>3276</v>
+        <v>787.13300000000004</v>
       </c>
       <c r="E33">
-        <v>2294</v>
+        <v>339.42700000000002</v>
       </c>
       <c r="F33">
-        <v>2772</v>
+        <v>603.73199999999997</v>
       </c>
       <c r="G33">
-        <v>6172</v>
+        <v>2274.4290000000001</v>
       </c>
       <c r="H33">
-        <v>19141</v>
+        <v>6505.2579999999998</v>
       </c>
       <c r="I33">
-        <v>1877</v>
+        <v>777.60199999999998</v>
       </c>
       <c r="J33">
-        <v>3727</v>
+        <v>1249.2809999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3426,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>8763</v>
+        <v>2553.357</v>
       </c>
       <c r="O33">
-        <v>13195</v>
+        <v>4200.0910000000003</v>
       </c>
       <c r="P33">
-        <v>3727</v>
+        <v>1249.2809999999999</v>
       </c>
       <c r="Q33">
-        <v>-303</v>
+        <v>-576.45500000000004</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>9480</v>
       </c>
       <c r="T33">
-        <v>5946</v>
+        <v>2305.1669999999999</v>
       </c>
       <c r="U33">
-        <v>2920</v>
+        <v>689.13400000000001</v>
       </c>
       <c r="V33">
-        <v>-371</v>
+        <v>-230.47800000000001</v>
       </c>
       <c r="W33">
-        <v>-47</v>
+        <v>-18.818000000000001</v>
       </c>
       <c r="X33">
-        <v>-698</v>
+        <v>-184.23400000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1023</v>
+        <v>-82.95</v>
       </c>
       <c r="AA33">
-        <v>525</v>
+        <v>70.328000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>-3.2810000000000001</v>
       </c>
       <c r="D34">
-        <v>2559</v>
+        <v>816.48800000000006</v>
       </c>
       <c r="E34">
-        <v>2151</v>
+        <v>414.55500000000001</v>
       </c>
       <c r="F34">
-        <v>2083</v>
+        <v>616.39</v>
       </c>
       <c r="G34">
-        <v>5197</v>
+        <v>2584.6419999999998</v>
       </c>
       <c r="H34">
-        <v>18033</v>
+        <v>6818.183</v>
       </c>
       <c r="I34">
-        <v>1699</v>
+        <v>1020.248</v>
       </c>
       <c r="J34">
-        <v>3717</v>
+        <v>1249.296</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3509,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>8060</v>
+        <v>3002.1889999999999</v>
       </c>
       <c r="O34">
-        <v>12352</v>
+        <v>4662.6840000000002</v>
       </c>
       <c r="P34">
-        <v>3717</v>
+        <v>1249.296</v>
       </c>
       <c r="Q34">
-        <v>-404</v>
+        <v>583.37400000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="S34">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5681</v>
+        <v>2155.4989999999998</v>
       </c>
       <c r="U34">
-        <v>2443</v>
+        <v>1272.508</v>
       </c>
       <c r="V34">
-        <v>-145</v>
+        <v>840.20899999999995</v>
       </c>
       <c r="W34">
-        <v>-48</v>
+        <v>-12.204000000000001</v>
       </c>
       <c r="X34">
-        <v>-335</v>
+        <v>-175.251</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>356</v>
+        <v>-52.548999999999999</v>
       </c>
       <c r="AA34">
-        <v>17</v>
+        <v>-3.2810000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-103</v>
+        <v>105.241</v>
       </c>
       <c r="D35">
-        <v>2609</v>
+        <v>1039.98</v>
       </c>
       <c r="E35">
-        <v>2617</v>
+        <v>512.85599999999999</v>
       </c>
       <c r="F35">
-        <v>2119</v>
+        <v>810.23900000000003</v>
       </c>
       <c r="G35">
-        <v>7702</v>
+        <v>3086.511</v>
       </c>
       <c r="H35">
-        <v>20963</v>
+        <v>7505.0959999999995</v>
       </c>
       <c r="I35">
-        <v>1736</v>
+        <v>998.15</v>
       </c>
       <c r="J35">
-        <v>3704</v>
+        <v>1249.3119999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3592,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>10726</v>
+        <v>3450.1849999999999</v>
       </c>
       <c r="O35">
-        <v>15300</v>
+        <v>5163.1180000000004</v>
       </c>
       <c r="P35">
-        <v>4288</v>
+        <v>1249.3119999999999</v>
       </c>
       <c r="Q35">
-        <v>1453</v>
+        <v>70.837999999999994</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5663</v>
+        <v>2341.9780000000001</v>
       </c>
       <c r="U35">
-        <v>3708</v>
+        <v>1343.346</v>
       </c>
       <c r="V35">
-        <v>2149</v>
+        <v>552.779</v>
       </c>
       <c r="W35">
-        <v>-47</v>
+        <v>-12.205</v>
       </c>
       <c r="X35">
-        <v>21</v>
+        <v>89.361999999999995</v>
       </c>
       <c r="Y35">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-438</v>
+        <v>-280.88099999999997</v>
       </c>
       <c r="AA35">
-        <v>-103</v>
+        <v>105.241</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>183</v>
+        <v>171.477</v>
       </c>
       <c r="D36">
-        <v>3153</v>
+        <v>1199.02</v>
       </c>
       <c r="E36">
-        <v>2893</v>
+        <v>566.33900000000006</v>
       </c>
       <c r="F36">
-        <v>2653</v>
+        <v>955.38699999999994</v>
       </c>
       <c r="G36">
-        <v>8824</v>
+        <v>3091.41</v>
       </c>
       <c r="H36">
-        <v>22201</v>
+        <v>7507.5649999999996</v>
       </c>
       <c r="I36">
-        <v>1970</v>
+        <v>1097.2180000000001</v>
       </c>
       <c r="J36">
-        <v>3715</v>
+        <v>1249.328</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3675,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>11676</v>
+        <v>3298.5790000000002</v>
       </c>
       <c r="O36">
-        <v>16265</v>
+        <v>5035.2560000000003</v>
       </c>
       <c r="P36">
-        <v>4291</v>
+        <v>1249.328</v>
       </c>
       <c r="Q36">
-        <v>722</v>
+        <v>-28.617999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5936</v>
+        <v>2472.3090000000002</v>
       </c>
       <c r="U36">
-        <v>4258</v>
+        <v>1314.7280000000001</v>
       </c>
       <c r="V36">
-        <v>1138</v>
+        <v>53.313000000000002</v>
       </c>
       <c r="W36">
-        <v>-48</v>
+        <v>-18.061</v>
       </c>
       <c r="X36">
-        <v>13</v>
+        <v>-68.037999999999997</v>
       </c>
       <c r="Y36">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-171</v>
+        <v>46.746000000000002</v>
       </c>
       <c r="AA36">
-        <v>183</v>
+        <v>171.477</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>409</v>
+        <v>6.734</v>
       </c>
       <c r="D37">
-        <v>3558</v>
+        <v>974.85900000000004</v>
       </c>
       <c r="E37">
-        <v>2684</v>
+        <v>461.53100000000001</v>
       </c>
       <c r="F37">
-        <v>3010</v>
+        <v>749.72699999999998</v>
       </c>
       <c r="G37">
-        <v>7969</v>
+        <v>2642.2660000000001</v>
       </c>
       <c r="H37">
-        <v>21381</v>
+        <v>7132.7460000000001</v>
       </c>
       <c r="I37">
-        <v>1813</v>
+        <v>954.07100000000003</v>
       </c>
       <c r="J37">
-        <v>4170</v>
+        <v>1249.345</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3758,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10582</v>
+        <v>3010.0749999999998</v>
       </c>
       <c r="O37">
-        <v>15609</v>
+        <v>4729.8850000000002</v>
       </c>
       <c r="P37">
-        <v>5463</v>
+        <v>1249.345</v>
       </c>
       <c r="Q37">
-        <v>-633</v>
+        <v>-21.567</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>12330</v>
       </c>
       <c r="T37">
-        <v>5772</v>
+        <v>2402.8609999999999</v>
       </c>
       <c r="U37">
-        <v>3797</v>
+        <v>1293.1610000000001</v>
       </c>
       <c r="V37">
-        <v>-861</v>
+        <v>-216.726</v>
       </c>
       <c r="W37">
-        <v>-50</v>
+        <v>-17.307210000000001</v>
       </c>
       <c r="X37">
-        <v>573</v>
+        <v>-118.86</v>
       </c>
       <c r="Y37">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-39</v>
+        <v>369.12</v>
       </c>
       <c r="AA37">
-        <v>409</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>76</v>
+        <v>-104.226</v>
       </c>
       <c r="D38">
-        <v>2747</v>
+        <v>1012.367</v>
       </c>
       <c r="E38">
-        <v>2524</v>
+        <v>627.79200000000003</v>
       </c>
       <c r="F38">
-        <v>2208</v>
+        <v>761.78599999999994</v>
       </c>
       <c r="G38">
-        <v>7735</v>
+        <v>2980.8710000000001</v>
       </c>
       <c r="H38">
-        <v>21416</v>
+        <v>8432.42</v>
       </c>
       <c r="I38">
-        <v>1921</v>
+        <v>1124.289</v>
       </c>
       <c r="J38">
-        <v>4189</v>
+        <v>1249.3610000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3841,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>10714</v>
+        <v>3984.3069999999998</v>
       </c>
       <c r="O38">
-        <v>15880</v>
+        <v>5807.165</v>
       </c>
       <c r="P38">
-        <v>5589</v>
+        <v>1249.3610000000001</v>
       </c>
       <c r="Q38">
-        <v>-150</v>
+        <v>-210.363</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="S38">
-        <v>25400</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>5536</v>
+        <v>2625.2550000000001</v>
       </c>
       <c r="U38">
-        <v>3315</v>
+        <v>1082.798</v>
       </c>
       <c r="V38">
-        <v>341</v>
+        <v>881.08900000000006</v>
       </c>
       <c r="W38">
-        <v>-50</v>
+        <v>-17.983000000000001</v>
       </c>
       <c r="X38">
-        <v>-432</v>
+        <v>-78.350999999999999</v>
       </c>
       <c r="Y38">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>154</v>
+        <v>-352.88299999999998</v>
       </c>
       <c r="AA38">
-        <v>76</v>
+        <v>-104.226</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1301</v>
+        <v>71.5</v>
       </c>
       <c r="D39">
-        <v>2209</v>
+        <v>1205.0170000000001</v>
       </c>
       <c r="E39">
-        <v>1423</v>
+        <v>684.875</v>
       </c>
       <c r="F39">
-        <v>1580</v>
+        <v>942.41</v>
       </c>
       <c r="G39">
-        <v>7652</v>
+        <v>3263.71</v>
       </c>
       <c r="H39">
-        <v>20417</v>
+        <v>8744.0959999999995</v>
       </c>
       <c r="I39">
-        <v>836</v>
+        <v>1252.3620000000001</v>
       </c>
       <c r="J39">
-        <v>6080</v>
+        <v>1249.3779999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3924,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>9608</v>
+        <v>4210.9120000000003</v>
       </c>
       <c r="O39">
-        <v>16676</v>
+        <v>6048.1679999999997</v>
       </c>
       <c r="P39">
-        <v>7377</v>
+        <v>1249.3779999999999</v>
       </c>
       <c r="Q39">
-        <v>624</v>
+        <v>229.01900000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3741</v>
+        <v>2695.9279999999999</v>
       </c>
       <c r="U39">
-        <v>3905</v>
+        <v>1311.817</v>
       </c>
       <c r="V39">
-        <v>-784</v>
+        <v>318.51900000000001</v>
       </c>
       <c r="W39">
-        <v>-48</v>
+        <v>-17.638000000000002</v>
       </c>
       <c r="X39">
-        <v>1517</v>
+        <v>-11.680999999999999</v>
       </c>
       <c r="Y39">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>300</v>
+        <v>-4.0890000000000004</v>
       </c>
       <c r="AA39">
-        <v>-1301</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-736</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>566</v>
+        <v>1401.86</v>
       </c>
       <c r="E40">
-        <v>1002</v>
+        <v>695.13699999999994</v>
       </c>
       <c r="F40">
-        <v>177</v>
+        <v>1125.5419999999999</v>
       </c>
       <c r="G40">
-        <v>8944</v>
+        <v>2705.806</v>
       </c>
       <c r="H40">
-        <v>21905</v>
+        <v>8201.61</v>
       </c>
       <c r="I40">
-        <v>531</v>
+        <v>1209.6420000000001</v>
       </c>
       <c r="J40">
-        <v>8803</v>
+        <v>1249.395</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4007,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>7872</v>
+        <v>3721.4189999999999</v>
       </c>
       <c r="O40">
-        <v>17680</v>
+        <v>5538.6379999999999</v>
       </c>
       <c r="P40">
-        <v>10096</v>
+        <v>1249.395</v>
       </c>
       <c r="Q40">
-        <v>1645</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4225</v>
+        <v>2662.9720000000002</v>
       </c>
       <c r="U40">
-        <v>5053</v>
+        <v>1394.498</v>
       </c>
       <c r="V40">
-        <v>-1846</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3816</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-224</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-736</v>
+        <v>170.85900000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-192</v>
+        <v>94.716999999999999</v>
       </c>
       <c r="D41">
-        <v>1504</v>
+        <v>1152.0150000000001</v>
       </c>
       <c r="E41">
-        <v>839</v>
+        <v>614.73500000000001</v>
       </c>
       <c r="F41">
-        <v>1129</v>
+        <v>903.48699999999997</v>
       </c>
       <c r="G41">
-        <v>6735</v>
+        <v>2219.2869999999998</v>
       </c>
       <c r="H41">
-        <v>19679</v>
+        <v>7739.4809999999998</v>
       </c>
       <c r="I41">
-        <v>581</v>
+        <v>1044.259</v>
       </c>
       <c r="J41">
-        <v>8826</v>
+        <v>1249.412</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4090,2369 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5636</v>
+        <v>3294.3809999999999</v>
       </c>
       <c r="O41">
-        <v>15545</v>
+        <v>5115.625</v>
       </c>
       <c r="P41">
-        <v>9348</v>
+        <v>1249.412</v>
       </c>
       <c r="Q41">
-        <v>-1285</v>
+        <v>-373.46499999999997</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>14570</v>
       </c>
       <c r="T41">
-        <v>4134</v>
+        <v>2623.8560000000002</v>
       </c>
       <c r="U41">
-        <v>4353</v>
+        <v>1021.033</v>
       </c>
       <c r="V41">
-        <v>-819</v>
+        <v>-212.215</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-19.68</v>
       </c>
       <c r="X41">
-        <v>-762</v>
+        <v>-172.161</v>
       </c>
       <c r="Y41">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>400</v>
+        <v>87.08</v>
       </c>
       <c r="AA41">
-        <v>-192</v>
+        <v>94.716999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-14.304</v>
+      </c>
+      <c r="D42">
+        <v>1200.3710000000001</v>
+      </c>
+      <c r="E42">
+        <v>818.81799999999998</v>
+      </c>
+      <c r="F42">
+        <v>905.75199999999995</v>
+      </c>
+      <c r="G42">
+        <v>3314.9540000000002</v>
+      </c>
+      <c r="H42">
+        <v>8888.3770000000004</v>
+      </c>
+      <c r="I42">
+        <v>1055.645</v>
+      </c>
+      <c r="J42">
+        <v>1249.43</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>4449.2550000000001</v>
+      </c>
+      <c r="O42">
+        <v>6291.2889999999998</v>
+      </c>
+      <c r="P42">
+        <v>1249.43</v>
+      </c>
+      <c r="Q42">
+        <v>463.03300000000002</v>
+      </c>
+      <c r="R42">
+        <v>41729</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2597.0880000000002</v>
+      </c>
+      <c r="U42">
+        <v>1484.066</v>
+      </c>
+      <c r="V42">
+        <v>971.43799999999999</v>
+      </c>
+      <c r="W42">
+        <v>-19.602</v>
+      </c>
+      <c r="X42">
+        <v>-78.203999999999994</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-359.70800000000003</v>
+      </c>
+      <c r="AA42">
+        <v>-14.304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>89.373000000000005</v>
+      </c>
+      <c r="D43">
+        <v>1494.6320000000001</v>
+      </c>
+      <c r="E43">
+        <v>927.90899999999999</v>
+      </c>
+      <c r="F43">
+        <v>1194.1310000000001</v>
+      </c>
+      <c r="G43">
+        <v>3640.9650000000001</v>
+      </c>
+      <c r="H43">
+        <v>9234.8289999999997</v>
+      </c>
+      <c r="I43">
+        <v>1191.346</v>
+      </c>
+      <c r="J43">
+        <v>1249.4480000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4857.8770000000004</v>
+      </c>
+      <c r="O43">
+        <v>6755.2849999999999</v>
+      </c>
+      <c r="P43">
+        <v>1249.4480000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-50.246000000000002</v>
+      </c>
+      <c r="R43">
+        <v>41820</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2479.5439999999999</v>
+      </c>
+      <c r="U43">
+        <v>1433.82</v>
+      </c>
+      <c r="V43">
+        <v>493.50400000000002</v>
+      </c>
+      <c r="W43">
+        <v>-19.231000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-217.40600000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-246.86799999999999</v>
+      </c>
+      <c r="AA43">
+        <v>89.373000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>257.05900000000003</v>
+      </c>
+      <c r="D44">
+        <v>1712.5039999999999</v>
+      </c>
+      <c r="E44">
+        <v>887.43600000000004</v>
+      </c>
+      <c r="F44">
+        <v>1412.796</v>
+      </c>
+      <c r="G44">
+        <v>3836.8180000000002</v>
+      </c>
+      <c r="H44">
+        <v>9424.9879999999994</v>
+      </c>
+      <c r="I44">
+        <v>1272.7090000000001</v>
+      </c>
+      <c r="J44">
+        <v>1746.712</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4541.7070000000003</v>
+      </c>
+      <c r="O44">
+        <v>6902.6660000000002</v>
+      </c>
+      <c r="P44">
+        <v>1746.712</v>
+      </c>
+      <c r="Q44">
+        <v>818.928</v>
+      </c>
+      <c r="R44">
+        <v>41912</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2522.3220000000001</v>
+      </c>
+      <c r="U44">
+        <v>2252.748</v>
+      </c>
+      <c r="V44">
+        <v>101.86</v>
+      </c>
+      <c r="W44">
+        <v>-22.943999999999999</v>
+      </c>
+      <c r="X44">
+        <v>374.447</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>519.25800000000004</v>
+      </c>
+      <c r="AA44">
+        <v>257.05900000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>65.968999999999994</v>
+      </c>
+      <c r="D45">
+        <v>1355.9780000000001</v>
+      </c>
+      <c r="E45">
+        <v>778.33399999999995</v>
+      </c>
+      <c r="F45">
+        <v>1071.7249999999999</v>
+      </c>
+      <c r="G45">
+        <v>2924.489</v>
+      </c>
+      <c r="H45">
+        <v>9020.5380000000005</v>
+      </c>
+      <c r="I45">
+        <v>1188.4829999999999</v>
+      </c>
+      <c r="J45">
+        <v>1746.787</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4186.6149999999998</v>
+      </c>
+      <c r="O45">
+        <v>6566.7359999999999</v>
+      </c>
+      <c r="P45">
+        <v>1746.787</v>
+      </c>
+      <c r="Q45">
+        <v>-850.048</v>
+      </c>
+      <c r="R45">
+        <v>42004</v>
+      </c>
+      <c r="S45">
+        <v>18210</v>
+      </c>
+      <c r="T45">
+        <v>2453.8020000000001</v>
+      </c>
+      <c r="U45">
+        <v>1402.7</v>
+      </c>
+      <c r="V45">
+        <v>-199.84299999999999</v>
+      </c>
+      <c r="W45">
+        <v>-22.92</v>
+      </c>
+      <c r="X45">
+        <v>-30.687999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>55.664999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>65.968999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>44.143000000000001</v>
+      </c>
+      <c r="D46">
+        <v>1373.3969999999999</v>
+      </c>
+      <c r="E46">
+        <v>985.024</v>
+      </c>
+      <c r="F46">
+        <v>1051.479</v>
+      </c>
+      <c r="G46">
+        <v>3485.9279999999999</v>
+      </c>
+      <c r="H46">
+        <v>10135.088</v>
+      </c>
+      <c r="I46">
+        <v>1255.6099999999999</v>
+      </c>
+      <c r="J46">
+        <v>1746.8620000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>5382.6490000000003</v>
+      </c>
+      <c r="O46">
+        <v>7779.1319999999996</v>
+      </c>
+      <c r="P46">
+        <v>1746.8620000000001</v>
+      </c>
+      <c r="Q46">
+        <v>332.58300000000003</v>
+      </c>
+      <c r="R46">
+        <v>42094</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2355.9560000000001</v>
+      </c>
+      <c r="U46">
+        <v>1735.2829999999999</v>
+      </c>
+      <c r="V46">
+        <v>1051.0640000000001</v>
+      </c>
+      <c r="W46">
+        <v>-22.895</v>
+      </c>
+      <c r="X46">
+        <v>-26.664000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-217.024</v>
+      </c>
+      <c r="AA46">
+        <v>44.143000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>449.64400000000001</v>
+      </c>
+      <c r="D47">
+        <v>1662.6</v>
+      </c>
+      <c r="E47">
+        <v>1123.5550000000001</v>
+      </c>
+      <c r="F47">
+        <v>1341.518</v>
+      </c>
+      <c r="G47">
+        <v>4990.3919999999998</v>
+      </c>
+      <c r="H47">
+        <v>11831.925999999999</v>
+      </c>
+      <c r="I47">
+        <v>1346.242</v>
+      </c>
+      <c r="J47">
+        <v>2472.5360000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>5968.2280000000001</v>
+      </c>
+      <c r="O47">
+        <v>9099.268</v>
+      </c>
+      <c r="P47">
+        <v>2472.5360000000001</v>
+      </c>
+      <c r="Q47">
+        <v>1451.846</v>
+      </c>
+      <c r="R47">
+        <v>42185</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2732.6579999999999</v>
+      </c>
+      <c r="U47">
+        <v>3187.1289999999999</v>
+      </c>
+      <c r="V47">
+        <v>610.96699999999998</v>
+      </c>
+      <c r="W47">
+        <v>-23.096</v>
+      </c>
+      <c r="X47">
+        <v>712.70399999999995</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-62.76</v>
+      </c>
+      <c r="AA47">
+        <v>449.64400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>283.21600000000001</v>
+      </c>
+      <c r="D48">
+        <v>1937.7529999999999</v>
+      </c>
+      <c r="E48">
+        <v>1242.3030000000001</v>
+      </c>
+      <c r="F48">
+        <v>1609.6869999999999</v>
+      </c>
+      <c r="G48">
+        <v>3173.4720000000002</v>
+      </c>
+      <c r="H48">
+        <v>12403.272999999999</v>
+      </c>
+      <c r="I48">
+        <v>1442.35</v>
+      </c>
+      <c r="J48">
+        <v>2475.4250000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>5941.2460000000001</v>
+      </c>
+      <c r="O48">
+        <v>9329.5949999999993</v>
+      </c>
+      <c r="P48">
+        <v>2475.4250000000002</v>
+      </c>
+      <c r="Q48">
+        <v>-1731.79</v>
+      </c>
+      <c r="R48">
+        <v>42277</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3073.6779999999999</v>
+      </c>
+      <c r="U48">
+        <v>1455.3389999999999</v>
+      </c>
+      <c r="V48">
+        <v>-120.505</v>
+      </c>
+      <c r="W48">
+        <v>-31.181999999999999</v>
+      </c>
+      <c r="X48">
+        <v>38.768000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>159.726</v>
+      </c>
+      <c r="AA48">
+        <v>283.21600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-12.538</v>
+      </c>
+      <c r="D49">
+        <v>1698.567</v>
+      </c>
+      <c r="E49">
+        <v>1082.4059999999999</v>
+      </c>
+      <c r="F49">
+        <v>1360.0740000000001</v>
+      </c>
+      <c r="G49">
+        <v>2976.261</v>
+      </c>
+      <c r="H49">
+        <v>15485.674999999999</v>
+      </c>
+      <c r="I49">
+        <v>1329.87</v>
+      </c>
+      <c r="J49">
+        <v>3183.14</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>5926.0169999999998</v>
+      </c>
+      <c r="O49">
+        <v>9897.43</v>
+      </c>
+      <c r="P49">
+        <v>3585.14</v>
+      </c>
+      <c r="Q49">
+        <v>220.96</v>
+      </c>
+      <c r="R49">
+        <v>42369</v>
+      </c>
+      <c r="S49">
+        <v>18730</v>
+      </c>
+      <c r="T49">
+        <v>5588.2449999999999</v>
+      </c>
+      <c r="U49">
+        <v>1676.299</v>
+      </c>
+      <c r="V49">
+        <v>-173.48099999999999</v>
+      </c>
+      <c r="W49">
+        <v>-31.353999999999999</v>
+      </c>
+      <c r="X49">
+        <v>679.39099999999996</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>9.6519999999999992</v>
+      </c>
+      <c r="AA49">
+        <v>-12.538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-108.589</v>
+      </c>
+      <c r="D50">
+        <v>1903.961</v>
+      </c>
+      <c r="E50">
+        <v>1363.3209999999999</v>
+      </c>
+      <c r="F50">
+        <v>1501.3910000000001</v>
+      </c>
+      <c r="G50">
+        <v>3796.1320000000001</v>
+      </c>
+      <c r="H50">
+        <v>16390.044000000002</v>
+      </c>
+      <c r="I50">
+        <v>1372.34</v>
+      </c>
+      <c r="J50">
+        <v>3210.491</v>
+      </c>
+      <c r="K50">
+        <v>25</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-400.44299999999998</v>
+      </c>
+      <c r="N50">
+        <v>6957.96</v>
+      </c>
+      <c r="O50">
+        <v>11022.851000000001</v>
+      </c>
+      <c r="P50">
+        <v>3235.491</v>
+      </c>
+      <c r="Q50">
+        <v>387.03</v>
+      </c>
+      <c r="R50">
+        <v>42460</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5367.1930000000002</v>
+      </c>
+      <c r="U50">
+        <v>2063.3290000000002</v>
+      </c>
+      <c r="V50">
+        <v>1108.3230000000001</v>
+      </c>
+      <c r="W50">
+        <v>-36.173999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-612.95100000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>-108.589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>31.649000000000001</v>
+      </c>
+      <c r="D51">
+        <v>2195.8690000000001</v>
+      </c>
+      <c r="E51">
+        <v>1454.518</v>
+      </c>
+      <c r="F51">
+        <v>1789.489</v>
+      </c>
+      <c r="G51">
+        <v>4163.9769999999999</v>
+      </c>
+      <c r="H51">
+        <v>16728.542000000001</v>
+      </c>
+      <c r="I51">
+        <v>1455.758</v>
+      </c>
+      <c r="J51">
+        <v>3197.8470000000002</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>7446.7550000000001</v>
+      </c>
+      <c r="O51">
+        <v>11477.788</v>
+      </c>
+      <c r="P51">
+        <v>3212.8470000000002</v>
+      </c>
+      <c r="Q51">
+        <v>233.19499999999999</v>
+      </c>
+      <c r="R51">
+        <v>42551</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5250.7539999999999</v>
+      </c>
+      <c r="U51">
+        <v>2296.5239999999999</v>
+      </c>
+      <c r="V51">
+        <v>617.774</v>
+      </c>
+      <c r="W51">
+        <v>-35.773000000000003</v>
+      </c>
+      <c r="X51">
+        <v>-135.53800000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-5.9029999999999996</v>
+      </c>
+      <c r="AA51">
+        <v>31.649000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>279.33100000000002</v>
+      </c>
+      <c r="D52">
+        <v>2580.9050000000002</v>
+      </c>
+      <c r="E52">
+        <v>1383.7739999999999</v>
+      </c>
+      <c r="F52">
+        <v>2163.998</v>
+      </c>
+      <c r="G52">
+        <v>3620.2939999999999</v>
+      </c>
+      <c r="H52">
+        <v>16131.766</v>
+      </c>
+      <c r="I52">
+        <v>1488.1079999999999</v>
+      </c>
+      <c r="J52">
+        <v>3204.21</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>6619.4380000000001</v>
+      </c>
+      <c r="O52">
+        <v>10600.174000000001</v>
+      </c>
+      <c r="P52">
+        <v>3209.21</v>
+      </c>
+      <c r="Q52">
+        <v>-452.04899999999998</v>
+      </c>
+      <c r="R52">
+        <v>42643</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5531.5919999999996</v>
+      </c>
+      <c r="U52">
+        <v>1844.4749999999999</v>
+      </c>
+      <c r="V52">
+        <v>-182.41900000000001</v>
+      </c>
+      <c r="W52">
+        <v>-39.061999999999998</v>
+      </c>
+      <c r="X52">
+        <v>-66.808000000000007</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>8.8789999999999996</v>
+      </c>
+      <c r="AA52">
+        <v>279.33100000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>79.456999999999994</v>
+      </c>
+      <c r="D53">
+        <v>2092.8290000000002</v>
+      </c>
+      <c r="E53">
+        <v>1343.2470000000001</v>
+      </c>
+      <c r="F53">
+        <v>1721.9880000000001</v>
+      </c>
+      <c r="G53">
+        <v>3450.2510000000002</v>
+      </c>
+      <c r="H53">
+        <v>15777.546</v>
+      </c>
+      <c r="I53">
+        <v>1509.3130000000001</v>
+      </c>
+      <c r="J53">
+        <v>3159.3359999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>6127.1980000000003</v>
+      </c>
+      <c r="O53">
+        <v>10084.442999999999</v>
+      </c>
+      <c r="P53">
+        <v>3159.3359999999998</v>
+      </c>
+      <c r="Q53">
+        <v>-47.664000000000001</v>
+      </c>
+      <c r="R53">
+        <v>42735</v>
+      </c>
+      <c r="S53">
+        <v>20075</v>
+      </c>
+      <c r="T53">
+        <v>5693.1030000000001</v>
+      </c>
+      <c r="U53">
+        <v>1796.8109999999999</v>
+      </c>
+      <c r="V53">
+        <v>20.655999999999999</v>
+      </c>
+      <c r="W53">
+        <v>-39.15</v>
+      </c>
+      <c r="X53">
+        <v>124.678</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="AA53">
+        <v>79.456999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-86</v>
+      </c>
+      <c r="D54">
+        <v>2189</v>
+      </c>
+      <c r="E54">
+        <v>1579.6569999999999</v>
+      </c>
+      <c r="F54">
+        <v>1767</v>
+      </c>
+      <c r="G54">
+        <v>5328.4129999999996</v>
+      </c>
+      <c r="H54">
+        <v>17668.905999999999</v>
+      </c>
+      <c r="I54">
+        <v>1423.701</v>
+      </c>
+      <c r="J54">
+        <v>3170.933</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>8019.5709999999999</v>
+      </c>
+      <c r="O54">
+        <v>12009.848</v>
+      </c>
+      <c r="P54">
+        <v>3170.933</v>
+      </c>
+      <c r="Q54">
+        <v>721</v>
+      </c>
+      <c r="R54">
+        <v>42825</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5659.058</v>
+      </c>
+      <c r="U54">
+        <v>2503.23</v>
+      </c>
+      <c r="V54">
+        <v>1688</v>
+      </c>
+      <c r="W54">
+        <v>-42</v>
+      </c>
+      <c r="X54">
+        <v>-48</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-774</v>
+      </c>
+      <c r="AA54">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>57</v>
+      </c>
+      <c r="D55">
+        <v>2586</v>
+      </c>
+      <c r="E55">
+        <v>1809.6179999999999</v>
+      </c>
+      <c r="F55">
+        <v>2147</v>
+      </c>
+      <c r="G55">
+        <v>6026.5609999999997</v>
+      </c>
+      <c r="H55">
+        <v>18623.248</v>
+      </c>
+      <c r="I55">
+        <v>1714.8</v>
+      </c>
+      <c r="J55">
+        <v>3220.9459999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>8744.5020000000004</v>
+      </c>
+      <c r="O55">
+        <v>12801.132</v>
+      </c>
+      <c r="P55">
+        <v>3220.9459999999999</v>
+      </c>
+      <c r="Q55">
+        <v>384</v>
+      </c>
+      <c r="R55">
+        <v>42916</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5822.116</v>
+      </c>
+      <c r="U55">
+        <v>2874.8229999999999</v>
+      </c>
+      <c r="V55">
+        <v>701</v>
+      </c>
+      <c r="W55">
+        <v>-43</v>
+      </c>
+      <c r="X55">
+        <v>-33</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-42</v>
+      </c>
+      <c r="AA55">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>352</v>
+      </c>
+      <c r="D56">
+        <v>2966</v>
+      </c>
+      <c r="E56">
+        <v>1835.2860000000001</v>
+      </c>
+      <c r="F56">
+        <v>2507</v>
+      </c>
+      <c r="G56">
+        <v>5983.8019999999997</v>
+      </c>
+      <c r="H56">
+        <v>19035.232</v>
+      </c>
+      <c r="I56">
+        <v>1780.3409999999999</v>
+      </c>
+      <c r="J56">
+        <v>3735.7359999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>8272.5560000000005</v>
+      </c>
+      <c r="O56">
+        <v>12797.453</v>
+      </c>
+      <c r="P56">
+        <v>4235.7359999999999</v>
+      </c>
+      <c r="Q56">
+        <v>365</v>
+      </c>
+      <c r="R56">
+        <v>43008</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6237.7790000000005</v>
+      </c>
+      <c r="U56">
+        <v>3239.886</v>
+      </c>
+      <c r="V56">
+        <v>-443</v>
+      </c>
+      <c r="W56">
+        <v>-45</v>
+      </c>
+      <c r="X56">
+        <v>942</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>24</v>
+      </c>
+      <c r="AA56">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>2319</v>
+      </c>
+      <c r="E57">
+        <v>1866</v>
+      </c>
+      <c r="F57">
+        <v>1882</v>
+      </c>
+      <c r="G57">
+        <v>5540</v>
+      </c>
+      <c r="H57">
+        <v>18516</v>
+      </c>
+      <c r="I57">
+        <v>1838</v>
+      </c>
+      <c r="J57">
+        <v>3749</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>7879</v>
+      </c>
+      <c r="O57">
+        <v>12365</v>
+      </c>
+      <c r="P57">
+        <v>4249</v>
+      </c>
+      <c r="Q57">
+        <v>-371</v>
+      </c>
+      <c r="R57">
+        <v>43100</v>
+      </c>
+      <c r="S57">
+        <v>22615</v>
+      </c>
+      <c r="T57">
+        <v>6151</v>
+      </c>
+      <c r="U57">
+        <v>2847</v>
+      </c>
+      <c r="V57">
+        <v>-101</v>
+      </c>
+      <c r="W57">
+        <v>-46</v>
+      </c>
+      <c r="X57">
+        <v>-173</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>77</v>
+      </c>
+      <c r="AA57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-137</v>
+      </c>
+      <c r="D58">
+        <v>2508</v>
+      </c>
+      <c r="E58">
+        <v>2253</v>
+      </c>
+      <c r="F58">
+        <v>2021</v>
+      </c>
+      <c r="G58">
+        <v>7431</v>
+      </c>
+      <c r="H58">
+        <v>20429</v>
+      </c>
+      <c r="I58">
+        <v>1713</v>
+      </c>
+      <c r="J58">
+        <v>3771</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>9991</v>
+      </c>
+      <c r="O58">
+        <v>14599</v>
+      </c>
+      <c r="P58">
+        <v>4271</v>
+      </c>
+      <c r="Q58">
+        <v>729</v>
+      </c>
+      <c r="R58">
+        <v>43190</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5830</v>
+      </c>
+      <c r="U58">
+        <v>3423</v>
+      </c>
+      <c r="V58">
+        <v>1676</v>
+      </c>
+      <c r="W58">
+        <v>-46</v>
+      </c>
+      <c r="X58">
+        <v>-236</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-550</v>
+      </c>
+      <c r="AA58">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2880</v>
+      </c>
+      <c r="E59">
+        <v>2359</v>
+      </c>
+      <c r="F59">
+        <v>2382</v>
+      </c>
+      <c r="G59">
+        <v>7794</v>
+      </c>
+      <c r="H59">
+        <v>20554</v>
+      </c>
+      <c r="I59">
+        <v>1811</v>
+      </c>
+      <c r="J59">
+        <v>3731</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>10497</v>
+      </c>
+      <c r="O59">
+        <v>14982</v>
+      </c>
+      <c r="P59">
+        <v>4231</v>
+      </c>
+      <c r="Q59">
+        <v>-234</v>
+      </c>
+      <c r="R59">
+        <v>43281</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5572</v>
+      </c>
+      <c r="U59">
+        <v>3072</v>
+      </c>
+      <c r="V59">
+        <v>815</v>
+      </c>
+      <c r="W59">
+        <v>-45</v>
+      </c>
+      <c r="X59">
+        <v>-220</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-495</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>525</v>
+      </c>
+      <c r="D60">
+        <v>3276</v>
+      </c>
+      <c r="E60">
+        <v>2294</v>
+      </c>
+      <c r="F60">
+        <v>2772</v>
+      </c>
+      <c r="G60">
+        <v>6172</v>
+      </c>
+      <c r="H60">
+        <v>19141</v>
+      </c>
+      <c r="I60">
+        <v>1877</v>
+      </c>
+      <c r="J60">
+        <v>3727</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>8763</v>
+      </c>
+      <c r="O60">
+        <v>13195</v>
+      </c>
+      <c r="P60">
+        <v>3727</v>
+      </c>
+      <c r="Q60">
+        <v>-303</v>
+      </c>
+      <c r="R60">
+        <v>43373</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5946</v>
+      </c>
+      <c r="U60">
+        <v>2920</v>
+      </c>
+      <c r="V60">
+        <v>-371</v>
+      </c>
+      <c r="W60">
+        <v>-47</v>
+      </c>
+      <c r="X60">
+        <v>-698</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1023</v>
+      </c>
+      <c r="AA60">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>2559</v>
+      </c>
+      <c r="E61">
+        <v>2151</v>
+      </c>
+      <c r="F61">
+        <v>2083</v>
+      </c>
+      <c r="G61">
+        <v>5197</v>
+      </c>
+      <c r="H61">
+        <v>18033</v>
+      </c>
+      <c r="I61">
+        <v>1699</v>
+      </c>
+      <c r="J61">
+        <v>3717</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8060</v>
+      </c>
+      <c r="O61">
+        <v>12352</v>
+      </c>
+      <c r="P61">
+        <v>3717</v>
+      </c>
+      <c r="Q61">
+        <v>-404</v>
+      </c>
+      <c r="R61">
+        <v>43465</v>
+      </c>
+      <c r="S61">
+        <v>24500</v>
+      </c>
+      <c r="T61">
+        <v>5681</v>
+      </c>
+      <c r="U61">
+        <v>2443</v>
+      </c>
+      <c r="V61">
+        <v>-145</v>
+      </c>
+      <c r="W61">
+        <v>-48</v>
+      </c>
+      <c r="X61">
+        <v>-335</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>356</v>
+      </c>
+      <c r="AA61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-103</v>
+      </c>
+      <c r="D62">
+        <v>2609</v>
+      </c>
+      <c r="E62">
+        <v>2617</v>
+      </c>
+      <c r="F62">
+        <v>2119</v>
+      </c>
+      <c r="G62">
+        <v>7702</v>
+      </c>
+      <c r="H62">
+        <v>20963</v>
+      </c>
+      <c r="I62">
+        <v>1736</v>
+      </c>
+      <c r="J62">
+        <v>3704</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>10726</v>
+      </c>
+      <c r="O62">
+        <v>15300</v>
+      </c>
+      <c r="P62">
+        <v>4288</v>
+      </c>
+      <c r="Q62">
+        <v>1453</v>
+      </c>
+      <c r="R62">
+        <v>43555</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5663</v>
+      </c>
+      <c r="U62">
+        <v>3708</v>
+      </c>
+      <c r="V62">
+        <v>2149</v>
+      </c>
+      <c r="W62">
+        <v>-47</v>
+      </c>
+      <c r="X62">
+        <v>21</v>
+      </c>
+      <c r="Y62">
+        <v>472</v>
+      </c>
+      <c r="Z62">
+        <v>-438</v>
+      </c>
+      <c r="AA62">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>183</v>
+      </c>
+      <c r="D63">
+        <v>3153</v>
+      </c>
+      <c r="E63">
+        <v>2893</v>
+      </c>
+      <c r="F63">
+        <v>2653</v>
+      </c>
+      <c r="G63">
+        <v>8824</v>
+      </c>
+      <c r="H63">
+        <v>22201</v>
+      </c>
+      <c r="I63">
+        <v>1970</v>
+      </c>
+      <c r="J63">
+        <v>3715</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>11676</v>
+      </c>
+      <c r="O63">
+        <v>16265</v>
+      </c>
+      <c r="P63">
+        <v>4291</v>
+      </c>
+      <c r="Q63">
+        <v>722</v>
+      </c>
+      <c r="R63">
+        <v>43646</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5936</v>
+      </c>
+      <c r="U63">
+        <v>4258</v>
+      </c>
+      <c r="V63">
+        <v>1138</v>
+      </c>
+      <c r="W63">
+        <v>-48</v>
+      </c>
+      <c r="X63">
+        <v>13</v>
+      </c>
+      <c r="Y63">
+        <v>466</v>
+      </c>
+      <c r="Z63">
+        <v>-171</v>
+      </c>
+      <c r="AA63">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>409</v>
+      </c>
+      <c r="D64">
+        <v>3558</v>
+      </c>
+      <c r="E64">
+        <v>2684</v>
+      </c>
+      <c r="F64">
+        <v>3010</v>
+      </c>
+      <c r="G64">
+        <v>7969</v>
+      </c>
+      <c r="H64">
+        <v>21381</v>
+      </c>
+      <c r="I64">
+        <v>1813</v>
+      </c>
+      <c r="J64">
+        <v>4170</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>10582</v>
+      </c>
+      <c r="O64">
+        <v>15609</v>
+      </c>
+      <c r="P64">
+        <v>5463</v>
+      </c>
+      <c r="Q64">
+        <v>-633</v>
+      </c>
+      <c r="R64">
+        <v>43738</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5772</v>
+      </c>
+      <c r="U64">
+        <v>3797</v>
+      </c>
+      <c r="V64">
+        <v>-861</v>
+      </c>
+      <c r="W64">
+        <v>-50</v>
+      </c>
+      <c r="X64">
+        <v>573</v>
+      </c>
+      <c r="Y64">
+        <v>443</v>
+      </c>
+      <c r="Z64">
+        <v>-39</v>
+      </c>
+      <c r="AA64">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>2747</v>
+      </c>
+      <c r="E65">
+        <v>2524</v>
+      </c>
+      <c r="F65">
+        <v>2208</v>
+      </c>
+      <c r="G65">
+        <v>7735</v>
+      </c>
+      <c r="H65">
+        <v>21416</v>
+      </c>
+      <c r="I65">
+        <v>1921</v>
+      </c>
+      <c r="J65">
+        <v>4189</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>10714</v>
+      </c>
+      <c r="O65">
+        <v>15880</v>
+      </c>
+      <c r="P65">
+        <v>5589</v>
+      </c>
+      <c r="Q65">
+        <v>-150</v>
+      </c>
+      <c r="R65">
+        <v>43830</v>
+      </c>
+      <c r="S65">
+        <v>25400</v>
+      </c>
+      <c r="T65">
+        <v>5536</v>
+      </c>
+      <c r="U65">
+        <v>3315</v>
+      </c>
+      <c r="V65">
+        <v>341</v>
+      </c>
+      <c r="W65">
+        <v>-50</v>
+      </c>
+      <c r="X65">
+        <v>-432</v>
+      </c>
+      <c r="Y65">
+        <v>532</v>
+      </c>
+      <c r="Z65">
+        <v>154</v>
+      </c>
+      <c r="AA65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-1301</v>
+      </c>
+      <c r="D66">
+        <v>2209</v>
+      </c>
+      <c r="E66">
+        <v>1423</v>
+      </c>
+      <c r="F66">
+        <v>1580</v>
+      </c>
+      <c r="G66">
+        <v>7652</v>
+      </c>
+      <c r="H66">
+        <v>20417</v>
+      </c>
+      <c r="I66">
+        <v>836</v>
+      </c>
+      <c r="J66">
+        <v>6080</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>9608</v>
+      </c>
+      <c r="O66">
+        <v>16676</v>
+      </c>
+      <c r="P66">
+        <v>7377</v>
+      </c>
+      <c r="Q66">
+        <v>624</v>
+      </c>
+      <c r="R66">
+        <v>43921</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3741</v>
+      </c>
+      <c r="U66">
+        <v>3905</v>
+      </c>
+      <c r="V66">
+        <v>-784</v>
+      </c>
+      <c r="W66">
+        <v>-48</v>
+      </c>
+      <c r="X66">
+        <v>1517</v>
+      </c>
+      <c r="Y66">
+        <v>547</v>
+      </c>
+      <c r="Z66">
+        <v>300</v>
+      </c>
+      <c r="AA66">
+        <v>-1301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-736</v>
+      </c>
+      <c r="D67">
+        <v>566</v>
+      </c>
+      <c r="E67">
+        <v>1002</v>
+      </c>
+      <c r="F67">
+        <v>177</v>
+      </c>
+      <c r="G67">
+        <v>8944</v>
+      </c>
+      <c r="H67">
+        <v>21905</v>
+      </c>
+      <c r="I67">
+        <v>531</v>
+      </c>
+      <c r="J67">
+        <v>8803</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>7872</v>
+      </c>
+      <c r="O67">
+        <v>17680</v>
+      </c>
+      <c r="P67">
+        <v>10096</v>
+      </c>
+      <c r="Q67">
+        <v>1645</v>
+      </c>
+      <c r="R67">
+        <v>44012</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4225</v>
+      </c>
+      <c r="U67">
+        <v>5053</v>
+      </c>
+      <c r="V67">
+        <v>-1846</v>
+      </c>
+      <c r="W67">
+        <v>-17</v>
+      </c>
+      <c r="X67">
+        <v>3816</v>
+      </c>
+      <c r="Y67">
+        <v>543</v>
+      </c>
+      <c r="Z67">
+        <v>-224</v>
+      </c>
+      <c r="AA67">
+        <v>-736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-192</v>
+      </c>
+      <c r="D68">
+        <v>1504</v>
+      </c>
+      <c r="E68">
+        <v>839</v>
+      </c>
+      <c r="F68">
+        <v>1129</v>
+      </c>
+      <c r="G68">
+        <v>6735</v>
+      </c>
+      <c r="H68">
+        <v>19679</v>
+      </c>
+      <c r="I68">
+        <v>581</v>
+      </c>
+      <c r="J68">
+        <v>8826</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5636</v>
+      </c>
+      <c r="O68">
+        <v>15545</v>
+      </c>
+      <c r="P68">
+        <v>9348</v>
+      </c>
+      <c r="Q68">
+        <v>-1285</v>
+      </c>
+      <c r="R68">
+        <v>44104</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4134</v>
+      </c>
+      <c r="U68">
+        <v>4353</v>
+      </c>
+      <c r="V68">
+        <v>-819</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-762</v>
+      </c>
+      <c r="Y68">
+        <v>522</v>
+      </c>
+      <c r="Z68">
+        <v>400</v>
+      </c>
+      <c r="AA68">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
         <v>-383</v>
       </c>
-      <c r="D42">
+      <c r="D69">
         <v>920</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>701</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>633</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>5634</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>18690</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>602</v>
       </c>
-      <c r="J42">
+      <c r="J69">
         <v>8216</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>5406</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>14664</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>8855</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>-943</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S69">
         <v>19100</v>
       </c>
-      <c r="T42">
+      <c r="T69">
         <v>4026</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>3363</v>
       </c>
-      <c r="V42">
+      <c r="V69">
         <v>-385</v>
       </c>
-      <c r="W42">
+      <c r="W69">
         <v>-58</v>
       </c>
-      <c r="X42">
+      <c r="X69">
         <v>-494</v>
       </c>
-      <c r="Y42">
+      <c r="Y69">
         <v>513</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>-383</v>
       </c>
     </row>
